--- a/Data/Excels/Synthetic/Compare models/2/Elastic_InRays_2.xlsx
+++ b/Data/Excels/Synthetic/Compare models/2/Elastic_InRays_2.xlsx
@@ -830,17 +830,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4,07e-03</t>
+          <t>1,15e-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -915,17 +915,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3,55e-03</t>
+          <t>5,75e-04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -955,18 +955,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3,40</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3,48e-03</t>
+          <t>7,44e-04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1040,18 +1040,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3,45e-03</t>
+          <t>1,24e-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3,43e-03</t>
+          <t>1,27e-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,20</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>85,06</t>
+          <t>80,68</t>
         </is>
       </c>
     </row>
@@ -1882,17 +1882,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3,94e-03</t>
+          <t>1,80e-03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1928,12 +1928,12 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1967,17 +1967,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3,61e-03</t>
+          <t>1,20e-03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2013,12 +2013,12 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2052,17 +2052,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3,55e-03</t>
+          <t>1,78e-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3,63e-03</t>
+          <t>1,83e-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2222,17 +2222,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3,69e-03</t>
+          <t>1,91e-03</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2272,22 +2272,22 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4,40</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>74,31</t>
+          <t>74,05</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,49e-01</t>
+          <t>1,74e-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2454,12 +2454,12 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>15,02</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>19,08</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2493,17 +2493,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,45e-01</t>
+          <t>2,14e-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,28 +2523,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>16,90</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>18,61</t>
+          <t>21,45</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1,45e-01</t>
+          <t>2,07e-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2608,28 +2608,28 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>14,77</t>
+          <t>17,30</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>21,92</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,49e-01</t>
+          <t>2,34e-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2693,28 +2693,28 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>15,11</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19,27</t>
+          <t>23,18</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2748,17 +2748,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,65e-01</t>
+          <t>2,41e-01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2778,17 +2778,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2798,22 +2798,22 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>15,93</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>23,81</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-27,89</t>
+          <t>-50,63</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>104,33</t>
+          <t>122,88</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,92e-01</t>
+          <t>1,89e-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3580,23 +3580,23 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>20,87</t>
+          <t>20,58</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2,61e-01</t>
+          <t>3,06e-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3660,28 +3660,28 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>20,72</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>25,53</t>
+          <t>26,38</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -3715,17 +3715,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2,93e-01</t>
+          <t>3,12e-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3745,28 +3745,28 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27,06</t>
+          <t>26,66</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -3800,17 +3800,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2,96e-01</t>
+          <t>3,13e-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3830,17 +3830,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3850,22 +3850,22 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>22,57</t>
+          <t>21,93</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27,93</t>
+          <t>27,24</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-60,21</t>
+          <t>-55,68</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>121,38</t>
+          <t>117,95</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3,74e-04</t>
+          <t>3,76e-04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3,72e-04</t>
+          <t>3,73e-04</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>52,98</t>
+          <t>52,99</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3,74e-03</t>
+          <t>4,42e-03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4558,12 +4558,12 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -4597,17 +4597,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3,43e-03</t>
+          <t>1,88e-03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4643,12 +4643,12 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3,50e-03</t>
+          <t>1,83e-03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4728,12 +4728,12 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3,69e-03</t>
+          <t>2,99e-03</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4813,12 +4813,12 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3,75e-03</t>
+          <t>3,05e-03</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4902,22 +4902,22 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-4,40</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>69,78</t>
+          <t>70,28</t>
         </is>
       </c>
     </row>
@@ -5564,17 +5564,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2,61e-01</t>
+          <t>3,38e-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5594,28 +5594,28 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>20,06</t>
+          <t>21,84</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5649,17 +5649,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2,93e-01</t>
+          <t>3,60e-01</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5679,28 +5679,28 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>22,02</t>
+          <t>24,08</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5734,17 +5734,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3,10e-01</t>
+          <t>4,18e-01</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5764,28 +5764,28 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>20,84</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>26,16</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5819,17 +5819,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3,22e-01</t>
+          <t>4,22e-01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5849,28 +5849,28 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>19,27</t>
+          <t>21,18</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24,15</t>
+          <t>26,63</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5904,17 +5904,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3,61e-01</t>
+          <t>4,64e-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5934,17 +5934,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5954,22 +5954,22 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>20,53</t>
+          <t>22,61</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>25,84</t>
+          <t>28,42</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>-66,03</t>
+          <t>-82,85</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>105,53</t>
+          <t>116,22</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8,95e-04</t>
+          <t>2,61e-03</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6646,12 +6646,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6662,12 +6662,12 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,80</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4,40e-04</t>
+          <t>2,15e-03</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6747,12 +6747,12 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,80</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -6786,17 +6786,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3,24e-04</t>
+          <t>2,15e-03</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6816,12 +6816,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6832,12 +6832,12 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,80</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
@@ -6871,17 +6871,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2,62e-04</t>
+          <t>2,14e-03</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6901,12 +6901,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6917,12 +6917,12 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,80</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -6956,17 +6956,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2,20e-04</t>
+          <t>2,14e-03</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6986,19 +6986,19 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>-0,0</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>2,50</t>
@@ -7006,22 +7006,22 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,80</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>350,86</t>
+          <t>353,22</t>
         </is>
       </c>
     </row>
@@ -7668,17 +7668,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4,46e-02</t>
+          <t>2,35e-02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7703,23 +7703,23 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>31,53</t>
+          <t>31,01</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>40,07</t>
+          <t>39,55</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -7753,17 +7753,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3,61e-02</t>
+          <t>1,65e-02</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7783,28 +7783,28 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>31,60</t>
+          <t>31,08</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>40,13</t>
+          <t>39,59</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -7838,17 +7838,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3,38e-02</t>
+          <t>2,54e-02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7873,23 +7873,23 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>31,64</t>
+          <t>30,92</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>40,15</t>
+          <t>39,56</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3,28e-02</t>
+          <t>3,03e-02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7958,23 +7958,23 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>31,66</t>
+          <t>30,91</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>40,17</t>
+          <t>39,56</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -8008,17 +8008,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3,21e-02</t>
+          <t>3,18e-02</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>31,68</t>
+          <t>30,93</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>40,18</t>
+          <t>39,59</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>202,18</t>
+          <t>197,41</t>
         </is>
       </c>
     </row>
@@ -8720,17 +8720,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,40</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>7,02e-02</t>
+          <t>4,33e-02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8750,28 +8750,28 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>33,75</t>
+          <t>33,74</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>42,21</t>
+          <t>42,09</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -8805,17 +8805,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6,06e-02</t>
+          <t>1,92e-02</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8835,28 +8835,28 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>33,86</t>
+          <t>33,95</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>42,33</t>
+          <t>42,21</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -8890,17 +8890,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>5,32e-02</t>
+          <t>1,70e-02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8920,28 +8920,28 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>-0,07</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>-0,06</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>33,90</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>42,40</t>
+          <t>42,20</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -8975,17 +8975,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4,98e-02</t>
+          <t>2,90e-02</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9005,28 +9005,28 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>33,98</t>
+          <t>33,79</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>42,42</t>
+          <t>42,15</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -9060,17 +9060,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4,96e-02</t>
+          <t>2,95e-02</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9090,17 +9090,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9110,22 +9110,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>33,79</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>42,42</t>
+          <t>42,15</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-1,70</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>177,37</t>
+          <t>176,26</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>3,10e-02</t>
+          <t>3,09e-02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7,32e-02</t>
+          <t>7,22e-02</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -10824,17 +10824,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1,25e-01</t>
+          <t>8,38e-02</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -10854,28 +10854,28 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>53,70</t>
+          <t>52,82</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>71,98</t>
+          <t>71,26</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -10909,17 +10909,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1,17e-01</t>
+          <t>7,32e-02</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -10939,28 +10939,28 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>53,75</t>
+          <t>52,79</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>72,00</t>
+          <t>71,24</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -10994,17 +10994,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1,09e-01</t>
+          <t>8,16e-02</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11024,28 +11024,28 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>53,79</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>72,02</t>
+          <t>71,19</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -11079,17 +11079,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1,08e-01</t>
+          <t>8,69e-02</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -11109,28 +11109,28 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>53,82</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>72,04</t>
+          <t>71,19</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -11164,17 +11164,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1,10e-01</t>
+          <t>8,97e-02</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -11194,17 +11194,17 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -11214,22 +11214,22 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>53,84</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>72,05</t>
+          <t>71,19</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-0,70</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>115,33</t>
+          <t>112,74</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>4,19e-03</t>
+          <t>4,18e-03</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>3,92e-03</t>
+          <t>3,94e-03</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>3,83e-03</t>
+          <t>3,81e-03</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -13048,12 +13048,12 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>8,88e-03</t>
+          <t>8,94e-03</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>6,60e-03</t>
+          <t>6,74e-03</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>6,15e-03</t>
+          <t>6,48e-03</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>40,55</t>
+          <t>40,54</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -13328,12 +13328,12 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>252,17</t>
+          <t>252,14</t>
         </is>
       </c>
     </row>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>7,32e-03</t>
+          <t>7,31e-03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>6,52e-03</t>
+          <t>6,59e-03</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>199,12</t>
+          <t>199,13</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -16084,17 +16084,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,40</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2,41e-01</t>
+          <t>2,20e-01</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -16114,28 +16114,28 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>-11,53</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>109,06</t>
+          <t>109,15</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>157,46</t>
+          <t>157,47</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -16169,17 +16169,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2,35e-01</t>
+          <t>2,00e-01</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -16199,28 +16199,28 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-10,59</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-11,96</t>
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>109,04</t>
+          <t>109,25</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>157,46</t>
+          <t>157,47</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -16254,17 +16254,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2,35e-01</t>
+          <t>1,98e-01</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -16284,28 +16284,28 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-10,59</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>109,04</t>
+          <t>109,26</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>157,46</t>
+          <t>157,47</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -16339,17 +16339,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2,35e-01</t>
+          <t>1,98e-01</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -16369,23 +16369,23 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>-11,69</t>
+          <t>-11,91</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>109,03</t>
+          <t>109,24</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2,35e-01</t>
+          <t>2,22e-01</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -16454,17 +16454,17 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16474,22 +16474,22 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>109,04</t>
+          <t>108,87</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>157,46</t>
+          <t>157,34</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>129,87</t>
+          <t>129,67</t>
         </is>
       </c>
     </row>
